--- a/winpressure_predict/predict_result/log/pitch angle 45/pitch angle =45 evaluation.xlsx
+++ b/winpressure_predict/predict_result/log/pitch angle 45/pitch angle =45 evaluation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\小论文\code\reflector wind pressure prediction\winpressure_predict\predict_result\log\pitch angle 45\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\小论文\code\reflector surface wind pressure prediction\winpressure_predict\predict_result\log\pitch angle 45\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3982342C-1D2F-4068-AB1D-3AA8695CED55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D61CEB-6E2B-4AB8-A57A-E1F35FD98822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3975" yWindow="3975" windowWidth="16170" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="25">
   <si>
     <t>angle=10</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -407,6 +407,32 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AF$3:$AF$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GRU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BiLSTM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>VMD-LSTM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>VMD-GRU</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>VMD-BiLSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>(Sheet1!$B$8,Sheet1!$B$17,Sheet1!$B$26,Sheet1!$B$37,Sheet1!$B$46,Sheet1!$B$55)</c:f>
@@ -435,42 +461,6 @@
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>[1]Sheet1!$K$7:$K$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>BiLSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>VMD-LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>VMD-GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Proposed model</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1197-4F9C-A1D2-87DF3DB05433}"/>
             </c:ext>
@@ -786,6 +776,32 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AF$3:$AF$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GRU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BiLSTM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>VMD-LSTM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>VMD-GRU</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>VMD-BiLSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>(Sheet1!$C$8,Sheet1!$C$17,Sheet1!$C$26,Sheet1!$C$37,Sheet1!$C$46,Sheet1!$C$55)</c:f>
@@ -814,42 +830,6 @@
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>[1]Sheet1!$K$7:$K$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>BiLSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>VMD-LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>VMD-GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Proposed model</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-29B8-4ED6-B99B-66204294E161}"/>
             </c:ext>
@@ -1160,6 +1140,32 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AF$3:$AF$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GRU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BiLSTM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>VMD-LSTM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>VMD-GRU</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>VMD-BiLSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>(Sheet1!$D$8,Sheet1!$D$17,Sheet1!$D$26,Sheet1!$D$37,Sheet1!$D$46,Sheet1!$D$55)</c:f>
@@ -1188,42 +1194,6 @@
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>[1]Sheet1!$K$7:$K$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>BiLSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>VMD-LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>VMD-GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Proposed model</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-855F-464D-821E-40A893F891F5}"/>
             </c:ext>
@@ -1490,6 +1460,32 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AF$3:$AF$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GRU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BiLSTM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>VMD-LSTM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>VMD-GRU</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>VMD-BiLSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>(Sheet1!$B$3,Sheet1!$B$12,Sheet1!$B$21,Sheet1!$B$32,Sheet1!$B$41,Sheet1!$B$50)</c:f>
@@ -1518,42 +1514,6 @@
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>[1]Sheet1!$K$7:$K$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>BiLSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>VMD-LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>VMD-GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Proposed model</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-388C-47DA-AEA7-D675D844C0E9}"/>
             </c:ext>
@@ -1578,6 +1538,32 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AF$3:$AF$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GRU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BiLSTM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>VMD-LSTM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>VMD-GRU</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>VMD-BiLSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>(Sheet1!$B$4,Sheet1!$B$13,Sheet1!$B$22,Sheet1!$B$33,Sheet1!$B$42,Sheet1!$B$51)</c:f>
@@ -1606,42 +1592,6 @@
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>[1]Sheet1!$K$7:$K$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>BiLSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>VMD-LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>VMD-GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Proposed model</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-388C-47DA-AEA7-D675D844C0E9}"/>
             </c:ext>
@@ -1666,6 +1616,32 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AF$3:$AF$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GRU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BiLSTM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>VMD-LSTM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>VMD-GRU</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>VMD-BiLSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>(Sheet1!$B$5,Sheet1!$B$14,Sheet1!$B$23,Sheet1!$B$34,Sheet1!$B$43,Sheet1!$B$52)</c:f>
@@ -1694,42 +1670,6 @@
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>[1]Sheet1!$K$7:$K$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>BiLSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>VMD-LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>VMD-GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Proposed model</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-388C-47DA-AEA7-D675D844C0E9}"/>
             </c:ext>
@@ -1754,6 +1694,32 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AF$3:$AF$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GRU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BiLSTM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>VMD-LSTM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>VMD-GRU</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>VMD-BiLSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>(Sheet1!$B$6,Sheet1!$B$15,Sheet1!$B$24,Sheet1!$B$35,Sheet1!$B$44,Sheet1!$B$53)</c:f>
@@ -1782,42 +1748,6 @@
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>[1]Sheet1!$K$7:$K$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>BiLSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>VMD-LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>VMD-GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Proposed model</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-388C-47DA-AEA7-D675D844C0E9}"/>
             </c:ext>
@@ -1842,6 +1772,32 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AF$3:$AF$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GRU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BiLSTM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>VMD-LSTM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>VMD-GRU</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>VMD-BiLSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>(Sheet1!$B$7,Sheet1!$B$16,Sheet1!$B$25,Sheet1!$B$36,Sheet1!$B$45,Sheet1!$B$54)</c:f>
@@ -1870,42 +1826,6 @@
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>[1]Sheet1!$K$7:$K$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>BiLSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>VMD-LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>VMD-GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Proposed model</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-388C-47DA-AEA7-D675D844C0E9}"/>
             </c:ext>
@@ -2250,6 +2170,32 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AF$3:$AF$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GRU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BiLSTM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>VMD-LSTM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>VMD-GRU</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>VMD-BiLSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>(Sheet1!$E$8,Sheet1!$E$17,Sheet1!$E$26,Sheet1!$E$37,Sheet1!$E$46,Sheet1!$E$55)</c:f>
@@ -2278,42 +2224,6 @@
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>[1]Sheet1!$K$7:$K$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>BiLSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>VMD-LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>VMD-GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Proposed model</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-144C-43DF-8391-3DDA01E029E5}"/>
             </c:ext>
@@ -2577,6 +2487,32 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AF$3:$AF$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GRU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BiLSTM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>VMD-LSTM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>VMD-GRU</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>VMD-BiLSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>(Sheet1!$C$3,Sheet1!$C$12,Sheet1!$C$21,Sheet1!$C$32,Sheet1!$C$41,Sheet1!$C$50)</c:f>
@@ -2605,42 +2541,6 @@
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>[1]Sheet1!$K$7:$K$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>BiLSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>VMD-LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>VMD-GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Proposed model</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F74A-48F7-BBD6-C48A7EB94003}"/>
             </c:ext>
@@ -2665,6 +2565,32 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AF$3:$AF$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GRU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BiLSTM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>VMD-LSTM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>VMD-GRU</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>VMD-BiLSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>(Sheet1!$C$4,Sheet1!$C$13,Sheet1!$C$22,Sheet1!$C$33,Sheet1!$C$42,Sheet1!$C$51)</c:f>
@@ -2693,42 +2619,6 @@
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>[1]Sheet1!$K$7:$K$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>BiLSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>VMD-LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>VMD-GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Proposed model</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F74A-48F7-BBD6-C48A7EB94003}"/>
             </c:ext>
@@ -2753,6 +2643,32 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AF$3:$AF$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GRU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BiLSTM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>VMD-LSTM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>VMD-GRU</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>VMD-BiLSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>(Sheet1!$C$5,Sheet1!$C$14,Sheet1!$C$23,Sheet1!$C$34,Sheet1!$C$43,Sheet1!$C$52)</c:f>
@@ -2781,42 +2697,6 @@
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>[1]Sheet1!$K$7:$K$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>BiLSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>VMD-LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>VMD-GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Proposed model</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-F74A-48F7-BBD6-C48A7EB94003}"/>
             </c:ext>
@@ -2841,6 +2721,32 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AF$3:$AF$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GRU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BiLSTM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>VMD-LSTM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>VMD-GRU</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>VMD-BiLSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>(Sheet1!$C$6,Sheet1!$C$15,Sheet1!$C$24,Sheet1!$C$35,Sheet1!$C$44,Sheet1!$C$53)</c:f>
@@ -2869,42 +2775,6 @@
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>[1]Sheet1!$K$7:$K$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>BiLSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>VMD-LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>VMD-GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Proposed model</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-F74A-48F7-BBD6-C48A7EB94003}"/>
             </c:ext>
@@ -2929,6 +2799,32 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AF$3:$AF$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GRU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BiLSTM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>VMD-LSTM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>VMD-GRU</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>VMD-BiLSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>(Sheet1!$C$7,Sheet1!$C$16,Sheet1!$C$25,Sheet1!$C$36,Sheet1!$C$45,Sheet1!$C$54)</c:f>
@@ -2957,42 +2853,6 @@
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>[1]Sheet1!$K$7:$K$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>BiLSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>VMD-LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>VMD-GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Proposed model</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-F74A-48F7-BBD6-C48A7EB94003}"/>
             </c:ext>
@@ -3282,6 +3142,32 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AF$3:$AF$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GRU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BiLSTM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>VMD-LSTM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>VMD-GRU</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>VMD-BiLSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>(Sheet1!$D$3,Sheet1!$D$12,Sheet1!$D$21,Sheet1!$D$32,Sheet1!$D$41,Sheet1!$D$50)</c:f>
@@ -3310,42 +3196,6 @@
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>[1]Sheet1!$K$7:$K$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>BiLSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>VMD-LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>VMD-GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Proposed model</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C3EA-423B-9396-0936AA2C39BD}"/>
             </c:ext>
@@ -3370,6 +3220,32 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AF$3:$AF$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GRU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BiLSTM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>VMD-LSTM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>VMD-GRU</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>VMD-BiLSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>(Sheet1!$D$4,Sheet1!$D$13,Sheet1!$D$22,Sheet1!$D$33,Sheet1!$D$42,Sheet1!$D$51)</c:f>
@@ -3398,42 +3274,6 @@
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>[1]Sheet1!$K$7:$K$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>BiLSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>VMD-LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>VMD-GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Proposed model</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C3EA-423B-9396-0936AA2C39BD}"/>
             </c:ext>
@@ -3458,6 +3298,32 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AF$3:$AF$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GRU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BiLSTM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>VMD-LSTM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>VMD-GRU</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>VMD-BiLSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>(Sheet1!$D$5,Sheet1!$D$14,Sheet1!$D$23,Sheet1!$D$34,Sheet1!$D$43,Sheet1!$D$52)</c:f>
@@ -3486,42 +3352,6 @@
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>[1]Sheet1!$K$7:$K$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>BiLSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>VMD-LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>VMD-GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Proposed model</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C3EA-423B-9396-0936AA2C39BD}"/>
             </c:ext>
@@ -3546,6 +3376,32 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AF$3:$AF$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GRU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BiLSTM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>VMD-LSTM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>VMD-GRU</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>VMD-BiLSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>(Sheet1!$D$6,Sheet1!$D$15,Sheet1!$D$24,Sheet1!$D$35,Sheet1!$D$44,Sheet1!$D$53)</c:f>
@@ -3574,42 +3430,6 @@
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>[1]Sheet1!$K$7:$K$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>BiLSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>VMD-LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>VMD-GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Proposed model</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-C3EA-423B-9396-0936AA2C39BD}"/>
             </c:ext>
@@ -3634,6 +3454,32 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AF$3:$AF$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GRU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BiLSTM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>VMD-LSTM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>VMD-GRU</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>VMD-BiLSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>(Sheet1!$D$7,Sheet1!$D$16,Sheet1!$D$25,Sheet1!$D$36,Sheet1!$D$45,Sheet1!$D$54)</c:f>
@@ -3662,42 +3508,6 @@
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>[1]Sheet1!$K$7:$K$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>BiLSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>VMD-LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>VMD-GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Proposed model</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-C3EA-423B-9396-0936AA2C39BD}"/>
             </c:ext>
@@ -3987,6 +3797,32 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AF$3:$AF$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GRU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BiLSTM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>VMD-LSTM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>VMD-GRU</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>VMD-BiLSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>(Sheet1!$E$3,Sheet1!$E$12,Sheet1!$E$21,Sheet1!$E$32,Sheet1!$E$41,Sheet1!$E$50)</c:f>
@@ -4015,42 +3851,6 @@
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>[1]Sheet1!$K$7:$K$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>BiLSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>VMD-LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>VMD-GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Proposed model</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1835-4D45-9021-6816A01D7121}"/>
             </c:ext>
@@ -4075,6 +3875,32 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AF$3:$AF$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GRU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BiLSTM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>VMD-LSTM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>VMD-GRU</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>VMD-BiLSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>(Sheet1!$E$4,Sheet1!$E$13,Sheet1!$E$22,Sheet1!$E$33,Sheet1!$E$42,Sheet1!$E$51)</c:f>
@@ -4103,42 +3929,6 @@
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>[1]Sheet1!$K$7:$K$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>BiLSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>VMD-LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>VMD-GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Proposed model</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1835-4D45-9021-6816A01D7121}"/>
             </c:ext>
@@ -4163,6 +3953,32 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AF$3:$AF$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GRU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BiLSTM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>VMD-LSTM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>VMD-GRU</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>VMD-BiLSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>(Sheet1!$E$5,Sheet1!$E$14,Sheet1!$E$23,Sheet1!$E$34,Sheet1!$E$43,Sheet1!$E$52)</c:f>
@@ -4191,42 +4007,6 @@
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>[1]Sheet1!$K$7:$K$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>BiLSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>VMD-LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>VMD-GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Proposed model</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1835-4D45-9021-6816A01D7121}"/>
             </c:ext>
@@ -4251,6 +4031,32 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AF$3:$AF$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GRU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BiLSTM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>VMD-LSTM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>VMD-GRU</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>VMD-BiLSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>(Sheet1!$E$6,Sheet1!$E$15,Sheet1!$E$24,Sheet1!$E$35,Sheet1!$E$44,Sheet1!$E$53)</c:f>
@@ -4279,42 +4085,6 @@
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>[1]Sheet1!$K$7:$K$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>BiLSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>VMD-LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>VMD-GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Proposed model</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-1835-4D45-9021-6816A01D7121}"/>
             </c:ext>
@@ -4339,6 +4109,32 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AF$3:$AF$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GRU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BiLSTM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>VMD-LSTM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>VMD-GRU</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>VMD-BiLSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>(Sheet1!$E$7,Sheet1!$E$16,Sheet1!$E$25,Sheet1!$E$36,Sheet1!$E$45,Sheet1!$E$54)</c:f>
@@ -4367,42 +4163,6 @@
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>[1]Sheet1!$K$7:$K$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>BiLSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>VMD-LSTM</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>VMD-GRU</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Proposed model</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-1835-4D45-9021-6816A01D7121}"/>
             </c:ext>
@@ -9617,8 +9377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C45" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T72" sqref="T72"/>
+    <sheetView tabSelected="1" topLeftCell="H72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q76" sqref="Q76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9641,7 +9401,7 @@
     <col min="35" max="35" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15"/>
       <c r="B1" s="19"/>
       <c r="C1" s="19" t="s">
@@ -9655,7 +9415,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -9678,7 +9438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>34.360999999999997</v>
       </c>
@@ -9700,8 +9460,11 @@
       <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="AF3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>40.523000000000003</v>
       </c>
@@ -9723,8 +9486,13 @@
       <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="AF4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH4" s="6"/>
+      <c r="AI4"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>23.672996999999999</v>
       </c>
@@ -9749,8 +9517,13 @@
       <c r="H5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="AF5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH5" s="6"/>
+      <c r="AI5"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>23.096</v>
       </c>
@@ -9772,8 +9545,13 @@
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="AF6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH6" s="6"/>
+      <c r="AI6"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>27.648002999999999</v>
       </c>
@@ -9795,8 +9573,13 @@
       <c r="G7" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH7" s="6"/>
+      <c r="AI7"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f t="shared" ref="A8:F8" si="0">AVERAGE(A3:A7)</f>
         <v>29.860199999999999</v>
@@ -9824,24 +9607,34 @@
       <c r="G8" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="O8"/>
+      <c r="Y8"/>
+      <c r="AF8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI8"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="7"/>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="AH9" s="6"/>
+      <c r="AI9"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="26"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="AH10" s="6"/>
+      <c r="AI10"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -9863,8 +9656,10 @@
       <c r="G11" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="AH11" s="6"/>
+      <c r="AI11"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>34.360999999999997</v>
       </c>
@@ -9887,7 +9682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>40.523000000000003</v>
       </c>
@@ -9910,7 +9705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>23.672866821288999</v>
       </c>
@@ -9936,7 +9731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>23.672996999999999</v>
       </c>
@@ -9959,7 +9754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>27.648002999999999</v>
       </c>
@@ -9982,13 +9777,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <f t="shared" ref="A17:F17" si="1">AVERAGE(A12:A16)</f>
         <v>29.975573364257798</v>
       </c>
       <c r="B17" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(B12:B16)</f>
         <v>0.71784401591902092</v>
       </c>
       <c r="C17" s="5">
@@ -10011,18 +9806,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="23"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -10045,7 +9840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>34.360999999999997</v>
       </c>
@@ -10068,7 +9863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>40.523000000000003</v>
       </c>
@@ -10091,7 +9886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23.672996999999999</v>
       </c>
@@ -10117,7 +9912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23.096</v>
       </c>
@@ -10139,8 +9934,9 @@
       <c r="G24" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="24"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>27.648002999999999</v>
       </c>
@@ -10163,7 +9959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <f t="shared" ref="A26:F26" si="2">AVERAGE(A21:A25)</f>
         <v>29.860199999999999</v>
@@ -10173,11 +9969,11 @@
         <v>0.78953964199999993</v>
       </c>
       <c r="C26" s="22">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(C21:C25)</f>
         <v>2.6806626800000002</v>
       </c>
       <c r="D26" s="22">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(D21:D25)</f>
         <v>2.2806139139999999</v>
       </c>
       <c r="E26" s="14">
@@ -10193,7 +9989,7 @@
       </c>
       <c r="H26" s="24"/>
     </row>
-    <row r="29" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
@@ -10201,7 +9997,7 @@
       <c r="Y29" s="7"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16" t="s">
@@ -10220,8 +10016,9 @@
       <c r="Y30" s="7"/>
       <c r="Z30" s="1"/>
       <c r="AE30" s="1"/>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="4"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
@@ -10257,7 +10054,7 @@
       <c r="AD31" s="4"/>
       <c r="AE31" s="1"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>34.360702079999903</v>
       </c>
@@ -10353,7 +10150,7 @@
         <v>10</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -10588,7 +10385,7 @@
         <v>10</v>
       </c>
       <c r="H43" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AE43" s="1"/>
     </row>
@@ -10774,7 +10571,7 @@
         <v>10</v>
       </c>
       <c r="H52" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.2">
@@ -10833,7 +10630,7 @@
         <v>0.93922192617513556</v>
       </c>
       <c r="C55" s="5">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(C50:C54)</f>
         <v>1.4922578445130941</v>
       </c>
       <c r="D55" s="5">
